--- a/Software Requirements/Phase Tests Requirements.xlsx
+++ b/Software Requirements/Phase Tests Requirements.xlsx
@@ -2376,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,7 +5391,7 @@
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
